--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java eCube\Full Stack Course\classes\MBTC\ojt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\OJT Project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDFB188-5142-4B78-A11A-DBC701C0E394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D374E0-464B-416F-8219-88074A20E5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -154,6 +152,9 @@
   </si>
   <si>
     <t>thandarlwinpepe@gmail.com</t>
+  </si>
+  <si>
+    <t>S-Music-Studio</t>
   </si>
 </sst>
 </file>
@@ -163,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +211,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,6 +276,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -606,26 +617,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25E4794-A67A-43DB-B125-4F6FF1E0D38A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.88671875" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.875" customWidth="1"/>
+    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="59.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="56.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -636,7 +647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -647,7 +658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -658,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -669,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -680,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -691,7 +702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -702,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:4" ht="30.75">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -714,7 +725,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:4" ht="30.75">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -726,7 +737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:4" ht="30.75">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -738,7 +749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:4" ht="30.75">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -750,7 +761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:4" ht="30.75">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -762,14 +773,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:4" ht="30.75">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
@@ -785,6 +798,7 @@
     <hyperlink ref="D14" r:id="rId4" xr:uid="{03D2A496-33C2-4725-8FFB-C1F0FDC86737}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -792,21 +806,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E182936F-69BB-47BB-8128-3D54275F94D9}">
   <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -826,7 +840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -840,7 +854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="B4" s="11"/>
     </row>
   </sheetData>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\OJT Project\mbtc-ojt-project-plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java eCube\Full Stack Course\classes\MBTC\ojt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D374E0-464B-416F-8219-88074A20E5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F7BB32-C85B-482D-B12B-8F5EA9458B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,11 +274,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,26 +617,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25E4794-A67A-43DB-B125-4F6FF1E0D38A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.875" customWidth="1"/>
-    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.88671875" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -702,7 +702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -713,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30.75">
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="30.75">
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30.75">
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -749,7 +749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30.75">
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -761,7 +761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30.75">
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -773,14 +773,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30.75">
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -806,21 +806,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E182936F-69BB-47BB-8128-3D54275F94D9}">
   <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -840,12 +840,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="11">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -854,7 +854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
     </row>
   </sheetData>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java eCube\Full Stack Course\classes\MBTC\ojt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\OJT Project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F7BB32-C85B-482D-B12B-8F5EA9458B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31642294-E51D-4189-8DAD-B93DDBCF8A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="S-Music-Studio" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -164,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,22 +622,22 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.88671875" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.875" customWidth="1"/>
+    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="59.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="56.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -658,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -669,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -680,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -691,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -702,7 +703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -713,7 +714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:4" ht="30.75">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -725,7 +726,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:4" ht="30.75">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -737,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:4" ht="30.75">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -749,7 +750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:4" ht="30.75">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -761,7 +762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:4" ht="30.75">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -773,7 +774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:4" ht="30.75">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -803,24 +804,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62663970-4D1B-48AE-95B3-76A0D8E0E5F9}">
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E182936F-69BB-47BB-8128-3D54275F94D9}">
   <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -840,7 +901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -854,7 +915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="B4" s="11"/>
     </row>
   </sheetData>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java eCube\Full Stack Course\classes\MBTC\ojt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F7BB32-C85B-482D-B12B-8F5EA9458B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757E4D81-DFD7-4B5E-B175-D51D10082650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -807,7 +807,7 @@
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,7 +855,18 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\OJT Project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31642294-E51D-4189-8DAD-B93DDBCF8A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9A0EBD-CF96-44B8-87D7-EFDA45C71964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>S-Music-Studio</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,7 +814,7 @@
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -846,13 +852,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="11">
-        <v>45106</v>
+        <v>45109</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java eCube\Full Stack Course\classes\MBTC\ojt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\OJT Project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE887A2-001B-4FB4-9500-D71849A215EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA02F6A-781F-42BB-9C9F-94C5F62641EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="S-Music-Studio" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -155,6 +156,9 @@
   </si>
   <si>
     <t>S-Music-Studio</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -164,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,26 +624,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25E4794-A67A-43DB-B125-4F6FF1E0D38A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.88671875" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.875" customWidth="1"/>
+    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="59.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="56.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -658,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -669,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -680,7 +687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -691,7 +698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -702,7 +709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -713,7 +720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:4" ht="30.75">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -725,7 +732,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:4" ht="30.75">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -737,7 +744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:4" ht="30.75">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -749,7 +756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:4" ht="30.75">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -761,7 +768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:4" ht="30.75">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -773,7 +780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:4" ht="30.75">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -803,6 +810,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018B66-250F-4A6A-A8AB-77198BFD38BE}">
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E182936F-69BB-47BB-8128-3D54275F94D9}">
   <dimension ref="A2:F4"/>
   <sheetViews>
@@ -810,17 +880,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -840,7 +910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -854,7 +924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="B4" s="11"/>
     </row>
   </sheetData>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\OJT Project\mbtc-ojt-project-plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java eCube\Full Stack Course\classes\MBTC\ojt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA02F6A-781F-42BB-9C9F-94C5F62641EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B58942-5DB8-4AE4-BB73-EFF275189F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="S-Music-Studio" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sample" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -168,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,11 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,18 +286,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -303,6 +314,82 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>281940</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,26 +711,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25E4794-A67A-43DB-B125-4F6FF1E0D38A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.875" customWidth="1"/>
-    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.88671875" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -654,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -665,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -676,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -687,7 +774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -698,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -709,7 +796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -720,7 +807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30.75">
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -732,7 +819,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="30.75">
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -744,7 +831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30.75">
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -756,7 +843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30.75">
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -768,7 +855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30.75">
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -780,7 +867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30.75">
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -813,21 +900,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018B66-250F-4A6A-A8AB-77198BFD38BE}">
   <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -847,7 +932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -860,11 +945,11 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
     </row>
   </sheetData>
@@ -873,24 +958,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E182936F-69BB-47BB-8128-3D54275F94D9}">
-  <dimension ref="A2:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E182936F-69BB-47BB-8128-3D54275F94D9}">
+  <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -906,11 +989,11 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -923,11 +1006,49 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:XFD3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F$3=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>281940</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java eCube\Full Stack Course\classes\MBTC\ojt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\OJT Project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B58942-5DB8-4AE4-BB73-EFF275189F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F549AE8-DE54-4E44-A17D-19168AB58053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="S-Music-Studio" sheetId="3" r:id="rId2"/>
+    <sheet name="S-Music-Studio" sheetId="4" r:id="rId2"/>
     <sheet name="Sample" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>S-Music-Studio</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -168,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,11 +219,6 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,9 +278,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -297,7 +286,12 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -317,6 +311,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
@@ -327,15 +325,87 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>335280</xdr:colOff>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DB48CE-1A79-4A26-B1A3-017DB21FEDE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>281940</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -711,26 +781,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25E4794-A67A-43DB-B125-4F6FF1E0D38A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.88671875" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.875" customWidth="1"/>
+    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="59.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="56.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -741,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -752,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -763,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -774,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -785,7 +855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -796,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -807,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:4" ht="30.75">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -819,7 +889,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:4" ht="30.75">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -831,7 +901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:4" ht="30.75">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -843,7 +913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:4" ht="30.75">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -855,7 +925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:4" ht="30.75">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -867,7 +937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:4" ht="30.75">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -897,22 +967,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018B66-250F-4A6A-A8AB-77198BFD38BE}">
-  <dimension ref="A2:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA6C4E-E2EF-476F-86ED-F9183DE3619F}">
+  <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -928,11 +1000,11 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="22.9" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -945,15 +1017,50 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="11"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:XFD3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F$3=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -963,17 +1070,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="5" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -993,7 +1100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="22.9" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1010,12 +1117,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="B4" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1032,15 +1139,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:colOff>333375</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>281940</xdr:rowOff>
+                    <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\OJT Project\mbtc-ojt-project-plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT_Project\ojt_view-project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F549AE8-DE54-4E44-A17D-19168AB58053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D84A7F4-9D5B-4668-9CAC-51711E9A4B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="S-Music-Studio" sheetId="4" r:id="rId2"/>
-    <sheet name="Sample" sheetId="2" r:id="rId3"/>
+    <sheet name="nyinyi" sheetId="5" r:id="rId3"/>
+    <sheet name="Sample" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -325,13 +324,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
+          <xdr:colOff>335280</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -343,7 +342,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DB48CE-1A79-4A26-B1A3-017DB21FEDE6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -397,15 +396,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -785,22 +784,22 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.875" customWidth="1"/>
-    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.8984375" customWidth="1"/>
+    <col min="4" max="4" width="62.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.25">
+    <row r="1" spans="1:4" ht="56.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="31.8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -811,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -822,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -833,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -844,7 +843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -855,7 +854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -866,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -877,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30.75">
+    <row r="12" spans="1:4" ht="31.2">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -889,7 +888,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="30.75">
+    <row r="13" spans="1:4" ht="31.2">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -901,7 +900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30.75">
+    <row r="14" spans="1:4" ht="31.2">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -913,7 +912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30.75">
+    <row r="15" spans="1:4" ht="31.2">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -925,7 +924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30.75">
+    <row r="16" spans="1:4" ht="31.2">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -937,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30.75">
+    <row r="17" spans="1:4" ht="31.8">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -970,17 +969,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA6C4E-E2EF-476F-86ED-F9183DE3619F}">
   <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.375" customWidth="1"/>
+    <col min="5" max="6" width="24.3984375" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1004,7 +1003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.9" customHeight="1">
+    <row r="3" spans="1:7" ht="22.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1026,7 +1025,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1043,13 +1042,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1065,18 +1064,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A4905-1879-411E-ABAA-A759D99C2FE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E182936F-69BB-47BB-8128-3D54275F94D9}">
   <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.375" customWidth="1"/>
+    <col min="5" max="6" width="24.3984375" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1100,7 +1111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.9" customHeight="1">
+    <row r="3" spans="1:7" ht="22.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1122,7 +1133,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1139,15 +1150,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>285750</xdr:rowOff>
+                    <xdr:rowOff>289560</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT_Project\ojt_view-project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D84A7F4-9D5B-4668-9CAC-51711E9A4B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE81BEF8-702A-479C-B899-B7022F86344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="S-Music-Studio" sheetId="4" r:id="rId2"/>
-    <sheet name="nyinyi" sheetId="5" r:id="rId3"/>
+    <sheet name="nyinyi" sheetId="6" r:id="rId3"/>
     <sheet name="Sample" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -285,7 +285,12 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -314,6 +319,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
@@ -408,13 +417,85 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FE9361-AB03-4963-848A-4B3831B26202}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1025,7 +1106,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1064,14 +1145,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A4905-1879-411E-ABAA-A759D99C2FE7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F0DC57-53EE-460E-8971-FBB45E7A5E92}">
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.95" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="11"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:XFD3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F$3=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6145" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -1133,7 +1298,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT_Project\ojt_view-project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE81BEF8-702A-479C-B899-B7022F86344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8311BA6E-9DCE-4B89-9B0B-637E751500CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,7 +1194,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT_Project\ojt_view-project\mbtc-ojt-project-plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\OJT Project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8311BA6E-9DCE-4B89-9B0B-637E751500CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC27323F-721B-4A9B-8F09-3791F1A93CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>S-Music-Studio</t>
+  </si>
+  <si>
+    <t>Backend Code</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -323,6 +329,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
@@ -333,13 +343,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>335280</xdr:colOff>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -395,6 +405,68 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="238125" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CEB576-0695-4E7D-B031-1DC7674D7BD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -405,13 +477,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>335280</xdr:colOff>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -423,7 +495,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FE9361-AB03-4963-848A-4B3831B26202}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -477,15 +549,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>335280</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -865,22 +937,22 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.8984375" customWidth="1"/>
-    <col min="4" max="4" width="62.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.875" customWidth="1"/>
+    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.4">
+    <row r="1" spans="1:4" ht="56.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="31.8">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -891,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -902,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -913,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -924,7 +996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -935,7 +1007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -946,7 +1018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="30.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -957,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2">
+    <row r="12" spans="1:4" ht="30.75">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -969,7 +1041,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="31.2">
+    <row r="13" spans="1:4" ht="30.75">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -981,7 +1053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2">
+    <row r="14" spans="1:4" ht="30.75">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -993,7 +1065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2">
+    <row r="15" spans="1:4" ht="30.75">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1005,7 +1077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2">
+    <row r="16" spans="1:4" ht="30.75">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +1089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.8">
+    <row r="17" spans="1:4" ht="30.75">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1050,17 +1122,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA6C4E-E2EF-476F-86ED-F9183DE3619F}">
   <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.3984375" customWidth="1"/>
+    <col min="5" max="6" width="24.375" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1084,12 +1156,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.95" customHeight="1">
+    <row r="3" spans="1:7" ht="22.9" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="11">
-        <v>45106</v>
+        <v>45837</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -1101,11 +1173,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45848</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:XFD3">
+  <conditionalFormatting sqref="A3:XFD3 E4:F4">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
@@ -1123,15 +1209,37 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:colOff>333375</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2050" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1148,15 +1256,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F0DC57-53EE-460E-8971-FBB45E7A5E92}">
   <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.3984375" customWidth="1"/>
+    <col min="5" max="6" width="24.375" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1180,7 +1288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.95" customHeight="1">
+    <row r="3" spans="1:7" ht="22.9" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1202,7 +1310,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1219,13 +1327,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:colOff>333375</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1246,13 +1354,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.3984375" customWidth="1"/>
+    <col min="5" max="6" width="24.375" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1276,7 +1384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.95" customHeight="1">
+    <row r="3" spans="1:7" ht="22.9" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1298,7 +1406,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1315,15 +1423,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:colOff>333375</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
+                    <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\OJT Project\mbtc-ojt-project-plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT_Project\ojt_view-project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC27323F-721B-4A9B-8F09-3791F1A93CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D438965-C809-450F-893F-4906C64DE73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -161,6 +161,21 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Coding (fornt end)</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Dashboard, Home, Contact , Register , LogIn ,ForgetPassword</t>
+  </si>
+  <si>
+    <t>Movies details</t>
+  </si>
+  <si>
+    <t>About of Website , Use Case and ERD</t>
   </si>
 </sst>
 </file>
@@ -291,7 +306,22 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -333,6 +363,18 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
@@ -343,13 +385,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
+          <xdr:colOff>335280</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -407,14 +449,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="238125" cy="228600"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2050" name="Check Box 2" hidden="1">
@@ -423,7 +470,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CEB576-0695-4E7D-B031-1DC7674D7BD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -463,7 +510,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -477,15 +524,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -539,6 +586,192 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="236220" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6146" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6146"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4ECDCC0-B66D-4B86-9827-25B106FA9E9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="236220" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6148" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6148"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B078C99-FF90-413B-9A01-9F55D19CD286}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="236220" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6149" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6149"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D64973-1999-4202-9089-9610C31B1D70}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -549,15 +782,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
+          <xdr:colOff>335280</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -937,22 +1170,22 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.875" customWidth="1"/>
-    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.8984375" customWidth="1"/>
+    <col min="4" max="4" width="62.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.25">
+    <row r="1" spans="1:4" ht="56.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="31.8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -963,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -974,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -985,7 +1218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -996,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1007,7 +1240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1018,7 +1251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="30.75">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1029,7 +1262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30.75">
+    <row r="12" spans="1:4" ht="31.2">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1274,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="30.75">
+    <row r="13" spans="1:4" ht="31.2">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1053,7 +1286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30.75">
+    <row r="14" spans="1:4" ht="31.2">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1065,7 +1298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30.75">
+    <row r="15" spans="1:4" ht="31.2">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30.75">
+    <row r="16" spans="1:4" ht="31.2">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +1322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30.75">
+    <row r="17" spans="1:4" ht="31.8">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1122,17 +1355,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA6C4E-E2EF-476F-86ED-F9183DE3619F}">
   <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.375" customWidth="1"/>
+    <col min="5" max="6" width="24.3984375" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1156,7 +1389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.9" customHeight="1">
+    <row r="3" spans="1:7" ht="22.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1192,7 +1425,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3 E4:F4">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1209,13 +1442,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1231,15 +1464,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>285750</xdr:rowOff>
+                    <xdr:rowOff>289560</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1254,17 +1487,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F0DC57-53EE-460E-8971-FBB45E7A5E92}">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5" customWidth="1"/>
+    <col min="5" max="6" width="24.3984375" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1288,12 +1521,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.9" customHeight="1">
+    <row r="3" spans="1:7" ht="25.8" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="11">
-        <v>45106</v>
+        <v>45837</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -1305,12 +1538,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45850</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.8" customHeight="1">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>45850</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>45850</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A3:XFD3 A5 A7 A9 A11 B4:B12">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$F$3=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:F4">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$F$3=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:F5">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$F$3=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:F6">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1327,15 +1659,81 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6146" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6148" r:id="rId5" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6149" r:id="rId6" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1354,13 +1752,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.375" customWidth="1"/>
+    <col min="5" max="6" width="24.3984375" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1384,7 +1782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.9" customHeight="1">
+    <row r="3" spans="1:7" ht="22.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1406,7 +1804,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1423,15 +1821,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>285750</xdr:rowOff>
+                    <xdr:rowOff>289560</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,41 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT_Project\ojt_view-project\mbtc-ojt-project-plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D438965-C809-450F-893F-4906C64DE73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E5933-7BAD-4BF8-8223-5DDCE81479E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="S-Music-Studio" sheetId="4" r:id="rId2"/>
     <sheet name="nyinyi" sheetId="6" r:id="rId3"/>
-    <sheet name="Sample" sheetId="2" r:id="rId4"/>
+    <sheet name="Nwae Nwae" sheetId="7" r:id="rId4"/>
+    <sheet name="Sample" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -176,6 +170,12 @@
   </si>
   <si>
     <t>About of Website , Use Case and ERD</t>
+  </si>
+  <si>
+    <t>backed Code</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -185,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,22 +301,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -588,14 +579,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>99060</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="236220" cy="228600"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6146" name="Check Box 2" hidden="1">
@@ -604,7 +600,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4ECDCC0-B66D-4B86-9827-25B106FA9E9B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -644,20 +640,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>99060</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="236220" cy="228600"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6148" name="Check Box 4" hidden="1">
@@ -666,7 +667,7 @@
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B078C99-FF90-413B-9A01-9F55D19CD286}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -706,20 +707,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>99060</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="236220" cy="228600"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6149" name="Check Box 5" hidden="1">
@@ -728,7 +734,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D64973-1999-4202-9089-9610C31B1D70}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -768,7 +774,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -789,8 +795,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>335280</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1170,22 +1176,22 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.8984375" customWidth="1"/>
-    <col min="4" max="4" width="62.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.88671875" customWidth="1"/>
+    <col min="4" max="4" width="62.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.4">
+    <row r="1" spans="1:4" ht="59.4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="31.8">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1240,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2">
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1274,7 +1280,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="31.2">
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2">
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2">
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2">
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.8">
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.65">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1359,17 +1365,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.3984375" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="5" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.95" customHeight="1">
+    <row r="3" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1">
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1425,7 +1431,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3 E4:F4">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1489,19 +1495,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F0DC57-53EE-460E-8971-FBB45E7A5E92}">
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5" customWidth="1"/>
-    <col min="5" max="6" width="24.3984375" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" customWidth="1"/>
+    <col min="5" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.8" customHeight="1">
+    <row r="3" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.2" customHeight="1">
+    <row r="4" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.8" customHeight="1">
+    <row r="5" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="22.2" customHeight="1">
+    <row r="6" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1589,60 +1595,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:XFD3 A5 A7 A9 A11 B4:B12">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="A3:XFD3 B4:B12 A5 A7 A9 A11">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F4">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$F$3=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:F5">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$F$3=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:F6">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="E4:F6">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1747,22 +1743,80 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E182936F-69BB-47BB-8128-3D54275F94D9}">
-  <dimension ref="A2:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A132B76-22BD-48E7-B717-46E6FF7D29D9}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.3984375" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>45853</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E182936F-69BB-47BB-8128-3D54275F94D9}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1782,7 +1836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.95" customHeight="1">
+    <row r="3" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1799,12 +1853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1828,8 +1882,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>335280</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/shedule and progress.xlsx
+++ b/shedule and progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT\mbtc-ojt-project-plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT_Project\ojt_view-project\mbtc-ojt-project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E5933-7BAD-4BF8-8223-5DDCE81479E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA6E6FB-478D-45A7-AE39-1C9899B69AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C5D9B523-719F-4836-AEBD-4E2F99C99B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>BS-Camp (Batch - 8) OJT Schedule</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>coding (fornt end) and (backend)</t>
+  </si>
+  <si>
+    <t>Register, Sign In and other movie functions</t>
+  </si>
+  <si>
+    <t>CO-MOVIE</t>
   </si>
 </sst>
 </file>
@@ -185,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +248,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,16 +314,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -366,6 +390,14 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
@@ -778,6 +810,130 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="236220" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6150" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6150"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A5BAF0-3B7B-4C61-B37C-7F0AF822B42B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="236220" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6151" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6151"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550AD382-2533-4332-9002-917D65613D3E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -806,7 +962,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1172,26 +1328,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25E4794-A67A-43DB-B125-4F6FF1E0D38A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="97.88671875" customWidth="1"/>
-    <col min="4" max="4" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.8984375" customWidth="1"/>
+    <col min="4" max="4" width="62.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="59.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="56.4">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="31.8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1213,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1224,7 +1380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1235,7 +1391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1246,7 +1402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1257,7 +1413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="31.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1268,7 +1424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:4" ht="31.2">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1436,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:4" ht="31.2">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1292,7 +1448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:4" ht="31.2">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:4" ht="31.2">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1316,19 +1472,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:4" ht="31.2">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:4" ht="31.8">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1361,21 +1519,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA6C4E-E2EF-476F-86ED-F9183DE3619F}">
   <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="5" max="6" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1395,7 +1551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="22.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1412,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="25.5" customHeight="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1431,7 +1587,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3 E4:F4">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1495,19 +1651,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F0DC57-53EE-460E-8971-FBB45E7A5E92}">
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" customWidth="1"/>
-    <col min="5" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="53.3984375" customWidth="1"/>
+    <col min="5" max="6" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +1683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="25.8" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1544,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="22.2" customHeight="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1561,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.8" customHeight="1">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1578,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="22.2" customHeight="1">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1595,37 +1751,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="25.8" customHeight="1">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>45857</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1633,12 +1800,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3 B4:B12 A5 A7 A9 A11">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F6">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$F$3=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:F7">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1736,6 +1908,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6150" r:id="rId7" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6151" r:id="rId8" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>335280</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -1746,16 +1962,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A132B76-22BD-48E7-B717-46E6FF7D29D9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1775,11 +1991,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>45853</v>
       </c>
       <c r="C2" t="s">
@@ -1805,18 +2021,18 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="5" max="6" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="25.2" customHeight="1"/>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1836,7 +2052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="22.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1853,12 +2069,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="B4" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F$3=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
